--- a/GameData/GameData.xlsx
+++ b/GameData/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\MyProject\Project2\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D674BC-59BF-41DD-BB1E-20A3A1EC0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118ABE1B-F338-4A81-A2C0-7C7905B50030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{B82C8279-B566-4ED0-BB93-2003657E0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="PTCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkeletalMesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SM_Rocket_Xalign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,14 @@
   </si>
   <si>
     <t>SFX_Projectile_Explosion</t>
+  </si>
+  <si>
+    <t>ProjectileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -643,7 +647,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -724,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AB6EFE-9593-4037-824F-AEAB25F04985}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -749,7 +753,7 @@
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +787,11 @@
       <c r="K1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -792,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -819,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -827,22 +834,22 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>3500</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -853,8 +860,11 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -900,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C036FB-5875-4DAE-94F4-EFECD2FB8E56}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -929,7 +939,7 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>37</v>
@@ -949,22 +959,22 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
